--- a/data/trans_orig/POLIPATOLOGIA_5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_5-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17357</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10462</v>
+        <v>10526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27130</v>
+        <v>26784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02500919853762208</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01507406187076692</v>
+        <v>0.0151671623041777</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03909141951203429</v>
+        <v>0.03859370073621222</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>25950</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17741</v>
+        <v>17322</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37931</v>
+        <v>37614</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03769904689699016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02577295584535286</v>
+        <v>0.02516402826935112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05510382090273025</v>
+        <v>0.05464394602717978</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -786,19 +786,19 @@
         <v>43307</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32156</v>
+        <v>31814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56745</v>
+        <v>57163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03132813878492263</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02326127873858214</v>
+        <v>0.02301450575611246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04104924306157306</v>
+        <v>0.04135160252171486</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>676655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>666882</v>
+        <v>667228</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>683550</v>
+        <v>683486</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9749908014623779</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9609085804879675</v>
+        <v>0.9614062992637877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9849259381292331</v>
+        <v>0.9848328376958223</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>670</v>
@@ -836,19 +836,19 @@
         <v>662401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>650420</v>
+        <v>650737</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>670610</v>
+        <v>671029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9623009531030098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.94489617909727</v>
+        <v>0.9453560539728201</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9742270441546478</v>
+        <v>0.9748359717306488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1335</v>
@@ -857,19 +857,19 @@
         <v>1339056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1325618</v>
+        <v>1325200</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1350207</v>
+        <v>1350549</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9686718612150774</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9589507569384269</v>
+        <v>0.9586483974782851</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9767387212614179</v>
+        <v>0.9769854942438876</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>35408</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24995</v>
+        <v>24880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48156</v>
+        <v>48157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03681470267807038</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02598815117199194</v>
+        <v>0.02586804741992303</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05006881274843922</v>
+        <v>0.05007008810802684</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -982,19 +982,19 @@
         <v>56861</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41868</v>
+        <v>41987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73763</v>
+        <v>73797</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0587164256834354</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04323442574841312</v>
+        <v>0.04335748748226292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07617009494618614</v>
+        <v>0.0762055497445189</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -1003,19 +1003,19 @@
         <v>92269</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74027</v>
+        <v>73841</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112260</v>
+        <v>114615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04780296956277405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03835223011028942</v>
+        <v>0.03825601158684177</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05815991492520097</v>
+        <v>0.05937996857381733</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>926392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>913644</v>
+        <v>913643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>936805</v>
+        <v>936920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9631852973219296</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9499311872515608</v>
+        <v>0.9499299118919732</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9740118488280081</v>
+        <v>0.974131952580077</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -1053,19 +1053,19 @@
         <v>911532</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>894630</v>
+        <v>894596</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>926525</v>
+        <v>926406</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9412835743165646</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9238299050538139</v>
+        <v>0.9237944502554811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9567655742515869</v>
+        <v>0.956642512517737</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1719</v>
@@ -1074,19 +1074,19 @@
         <v>1837924</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1817933</v>
+        <v>1815578</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1856166</v>
+        <v>1856352</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9521970304372259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.941840085074799</v>
+        <v>0.9406200314261828</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9616477698897107</v>
+        <v>0.9617439884131582</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>23671</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15203</v>
+        <v>15914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35933</v>
+        <v>35367</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03488653440118019</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02240707331986529</v>
+        <v>0.02345472442282449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05295854708489856</v>
+        <v>0.05212409800665137</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -1199,19 +1199,19 @@
         <v>69826</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54961</v>
+        <v>54514</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85198</v>
+        <v>85055</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1021085124062989</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.080371298508739</v>
+        <v>0.07971736857485623</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.124588144430474</v>
+        <v>0.1243788537649222</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1220,19 +1220,19 @@
         <v>93497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75173</v>
+        <v>77700</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112765</v>
+        <v>113572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06862907393998308</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05517883533261354</v>
+        <v>0.0570335044166393</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08277220034027606</v>
+        <v>0.08336456663442465</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>654838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>642576</v>
+        <v>643142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663306</v>
+        <v>662595</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9651134655988198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9470414529151021</v>
+        <v>0.9478759019933487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9775929266801346</v>
+        <v>0.9765452755771754</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>625</v>
@@ -1270,19 +1270,19 @@
         <v>614015</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>598643</v>
+        <v>598786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>628880</v>
+        <v>629327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8978914875937011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8754118555695259</v>
+        <v>0.8756211462350776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.919628701491261</v>
+        <v>0.9202826314251437</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1243</v>
@@ -1291,19 +1291,19 @@
         <v>1268853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1249585</v>
+        <v>1248778</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1287177</v>
+        <v>1284650</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9313709260600169</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9172277996597239</v>
+        <v>0.9166354333655755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9448211646673866</v>
+        <v>0.9429664955833611</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>35402</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25880</v>
+        <v>26796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46839</v>
+        <v>47763</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03757247722897328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02746697418789074</v>
+        <v>0.02843910891104457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04971105761188697</v>
+        <v>0.05069166869428218</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -1416,19 +1416,19 @@
         <v>73912</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57987</v>
+        <v>58574</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91663</v>
+        <v>93039</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0711642946040679</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05583164163738878</v>
+        <v>0.05639615510212562</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08825556249755255</v>
+        <v>0.08958008130523071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -1437,19 +1437,19 @@
         <v>109314</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91793</v>
+        <v>90455</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131600</v>
+        <v>131680</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05518569619457687</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04634058455747236</v>
+        <v>0.04566531933472541</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06643665255216831</v>
+        <v>0.06647696731298286</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>906820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>895383</v>
+        <v>894459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>916342</v>
+        <v>915426</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9624275227710267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.950288942388113</v>
+        <v>0.949308331305718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9725330258121095</v>
+        <v>0.9715608910889555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>927</v>
@@ -1487,19 +1487,19 @@
         <v>964700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>946949</v>
+        <v>945573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>980625</v>
+        <v>980038</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9288357053959321</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9117444375024474</v>
+        <v>0.9104199186947693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9441683583626111</v>
+        <v>0.9436038448978744</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1880</v>
@@ -1508,19 +1508,19 @@
         <v>1871520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1849234</v>
+        <v>1849154</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1889041</v>
+        <v>1890379</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9448143038054231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9335633474478316</v>
+        <v>0.9335230326870171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9536594154425276</v>
+        <v>0.9543346806652746</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>111838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92781</v>
+        <v>93627</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134207</v>
+        <v>131439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03413277547467264</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02831684981217865</v>
+        <v>0.02857506075762491</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0409598624463102</v>
+        <v>0.04011527088171515</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>218</v>
@@ -1633,19 +1633,19 @@
         <v>226549</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>195138</v>
+        <v>198790</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>257785</v>
+        <v>259070</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06704220913826139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05774682142247951</v>
+        <v>0.05882745501679269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07628596346720221</v>
+        <v>0.07666604801319707</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>334</v>
@@ -1654,19 +1654,19 @@
         <v>338386</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>303185</v>
+        <v>304085</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>376265</v>
+        <v>373408</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05084127958350297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04555235749649706</v>
+        <v>0.04568769743438784</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05653245456705201</v>
+        <v>0.05610308618877982</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3164705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3142336</v>
+        <v>3145104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3183762</v>
+        <v>3182916</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9658672245253274</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9590401375536898</v>
+        <v>0.9598847291182853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9716831501878214</v>
+        <v>0.9714249392423752</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3079</v>
@@ -1704,19 +1704,19 @@
         <v>3152648</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3121412</v>
+        <v>3120127</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3184059</v>
+        <v>3180407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9329577908617386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9237140365327977</v>
+        <v>0.9233339519868029</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9422531785775206</v>
+        <v>0.9411725449832071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6177</v>
@@ -1725,19 +1725,19 @@
         <v>6317355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6279476</v>
+        <v>6282333</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6352556</v>
+        <v>6351656</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9491587204164971</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9434675454329475</v>
+        <v>0.9438969138112202</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9544476425035028</v>
+        <v>0.9543123025656122</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>27181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18314</v>
+        <v>18197</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39432</v>
+        <v>38887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03863865076930246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02603359248085229</v>
+        <v>0.02586684181376855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05605346984678589</v>
+        <v>0.05527951395683398</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -2090,19 +2090,19 @@
         <v>66869</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52105</v>
+        <v>51500</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84189</v>
+        <v>82450</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0959314728130569</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07475132679456738</v>
+        <v>0.0738830408492762</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1207792775467179</v>
+        <v>0.1182834840586588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -2111,19 +2111,19 @@
         <v>94050</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76873</v>
+        <v>75246</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115960</v>
+        <v>116217</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06715376708679571</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05488863954747248</v>
+        <v>0.05372721717868828</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08279814390889967</v>
+        <v>0.08298137517524247</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>676288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>664037</v>
+        <v>664582</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>685155</v>
+        <v>685272</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9613613492306975</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9439465301532133</v>
+        <v>0.9447204860431659</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9739664075191473</v>
+        <v>0.9741331581862315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>589</v>
@@ -2161,19 +2161,19 @@
         <v>630181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>612861</v>
+        <v>614600</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>644945</v>
+        <v>645550</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9040685271869431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8792207224532818</v>
+        <v>0.8817165159413416</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9252486732054319</v>
+        <v>0.926116959150724</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1237</v>
@@ -2182,19 +2182,19 @@
         <v>1306469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1284559</v>
+        <v>1284302</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1323646</v>
+        <v>1325273</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9328462329132043</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9172018560911003</v>
+        <v>0.917018624824757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9451113604525269</v>
+        <v>0.9462727828213113</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>37115</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25805</v>
+        <v>26406</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50727</v>
+        <v>50535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03646086761395399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02535021325866284</v>
+        <v>0.02594026171478315</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04983238163154236</v>
+        <v>0.04964440773703754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -2307,19 +2307,19 @@
         <v>93829</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76442</v>
+        <v>75114</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112822</v>
+        <v>114830</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09090360140683243</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0740584020864572</v>
+        <v>0.07277176575768474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1093039616178096</v>
+        <v>0.1112494142903704</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -2328,19 +2328,19 @@
         <v>130944</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110238</v>
+        <v>108727</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>157255</v>
+        <v>154471</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06387126985169893</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05377104094992226</v>
+        <v>0.05303422749809703</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07670466438747103</v>
+        <v>0.07534709876310053</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>980832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>967220</v>
+        <v>967412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>992142</v>
+        <v>991541</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.963539132386046</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9501676183684576</v>
+        <v>0.9503555922629625</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9746497867413373</v>
+        <v>0.974059738285217</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>854</v>
@@ -2378,19 +2378,19 @@
         <v>938355</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>919362</v>
+        <v>917354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>955742</v>
+        <v>957070</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9090963985931676</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8906960383821901</v>
+        <v>0.8887505857096295</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9259415979135427</v>
+        <v>0.9272282342423152</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1756</v>
@@ -2399,19 +2399,19 @@
         <v>1919187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1892876</v>
+        <v>1895660</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1939893</v>
+        <v>1941404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9361287301483011</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9232953356125292</v>
+        <v>0.9246529012368994</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9462289590500778</v>
+        <v>0.9469657725019029</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>29129</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19007</v>
+        <v>20502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43752</v>
+        <v>43060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03844729513743499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02508729915859757</v>
+        <v>0.0270610643268598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.057749573913553</v>
+        <v>0.05683587361179567</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -2524,19 +2524,19 @@
         <v>72214</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56593</v>
+        <v>57137</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90717</v>
+        <v>88698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09291882277974511</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07281897564769843</v>
+        <v>0.07351897456175906</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1167272879083601</v>
+        <v>0.1141289999165318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -2545,19 +2545,19 @@
         <v>101343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82613</v>
+        <v>83735</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123831</v>
+        <v>122632</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0660299959915914</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05382669170475255</v>
+        <v>0.05455789403125791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08068237811846744</v>
+        <v>0.07990097446105955</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>728494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>713871</v>
+        <v>714563</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>738616</v>
+        <v>737121</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9615527048625651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9422504260864477</v>
+        <v>0.9431641263882043</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9749127008414027</v>
+        <v>0.9729389356731403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -2595,19 +2595,19 @@
         <v>704960</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>686457</v>
+        <v>688476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>720581</v>
+        <v>720037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9070811772202548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8832727120916399</v>
+        <v>0.8858710000834682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9271810243523015</v>
+        <v>0.926481025438241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1301</v>
@@ -2616,19 +2616,19 @@
         <v>1433454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1410966</v>
+        <v>1412165</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1452184</v>
+        <v>1451062</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9339700040084086</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9193176218815325</v>
+        <v>0.9200990255389405</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9461733082952475</v>
+        <v>0.9454421059687421</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>36427</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24960</v>
+        <v>24912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49372</v>
+        <v>51357</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03843530110552799</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02633650986553676</v>
+        <v>0.02628608440522174</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05209500641575896</v>
+        <v>0.05418853869586298</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -2741,19 +2741,19 @@
         <v>118094</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98739</v>
+        <v>98659</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142944</v>
+        <v>140212</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1122672174553481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09386745230717196</v>
+        <v>0.09379098537042893</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1358915488707718</v>
+        <v>0.1332937340773736</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -2762,19 +2762,19 @@
         <v>154521</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131253</v>
+        <v>131394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180809</v>
+        <v>181310</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07727421835224772</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06563814686639362</v>
+        <v>0.06570880272189757</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09042093962547275</v>
+        <v>0.09067136253347174</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>911312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>898367</v>
+        <v>896382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>922779</v>
+        <v>922827</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.961564698894472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.947904993584241</v>
+        <v>0.9458114613041368</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9736634901344633</v>
+        <v>0.9737139155947782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>894</v>
@@ -2812,19 +2812,19 @@
         <v>933807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>908957</v>
+        <v>911689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>953162</v>
+        <v>953242</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8877327825446519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8641084511292281</v>
+        <v>0.8667062659226265</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.906132547692828</v>
+        <v>0.906209014629571</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1772</v>
@@ -2833,19 +2833,19 @@
         <v>1845119</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1818831</v>
+        <v>1818330</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1868387</v>
+        <v>1868246</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9227257816477523</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9095790603745272</v>
+        <v>0.9093286374665283</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9343618531336063</v>
+        <v>0.9342911972781024</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>129852</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>107939</v>
+        <v>108486</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153561</v>
+        <v>155340</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03789317921906614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03149872547148206</v>
+        <v>0.0316582666591371</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04481191429653711</v>
+        <v>0.04533108741384586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>323</v>
@@ -2958,19 +2958,19 @@
         <v>351006</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>317362</v>
+        <v>315711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>388643</v>
+        <v>390505</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09864415026248594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08918912324439045</v>
+        <v>0.08872508609844039</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1092212705839782</v>
+        <v>0.1097446696746234</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>441</v>
@@ -2979,19 +2979,19 @@
         <v>480858</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>438545</v>
+        <v>440150</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>524363</v>
+        <v>530716</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06884063957846386</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06278299349435058</v>
+        <v>0.0630127691804012</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07506897170087763</v>
+        <v>0.07597848573440485</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3296927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3273218</v>
+        <v>3271439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3318840</v>
+        <v>3318293</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9621068207809339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9551880857034629</v>
+        <v>0.9546689125861542</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.968501274528518</v>
+        <v>0.9683417333408629</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2975</v>
@@ -3029,19 +3029,19 @@
         <v>3207303</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3169666</v>
+        <v>3167804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3240947</v>
+        <v>3242598</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.901355849737514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.890778729416022</v>
+        <v>0.8902553303253768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9108108767556098</v>
+        <v>0.9112749139015597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6066</v>
@@ -3050,19 +3050,19 @@
         <v>6504230</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6460725</v>
+        <v>6454372</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6546543</v>
+        <v>6544938</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9311593604215361</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9249310282991222</v>
+        <v>0.9240215142655951</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9372170065056492</v>
+        <v>0.9369872308195984</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>28639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19612</v>
+        <v>20148</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40582</v>
+        <v>40544</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04244029497727626</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02906375014554565</v>
+        <v>0.02985801188263574</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06014001024253094</v>
+        <v>0.06008348455737685</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -3415,19 +3415,19 @@
         <v>74264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58662</v>
+        <v>59597</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91734</v>
+        <v>92553</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1103741388061154</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08718598219761386</v>
+        <v>0.0885751282156189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1363383129844536</v>
+        <v>0.1375561617539965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -3436,19 +3436,19 @@
         <v>102903</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85857</v>
+        <v>85150</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124098</v>
+        <v>122440</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07635779030182313</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06370883342984626</v>
+        <v>0.06318454199950928</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09208564417318345</v>
+        <v>0.0908550894907876</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>646161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>634218</v>
+        <v>634256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>655188</v>
+        <v>654652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9575597050227237</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.939859989757469</v>
+        <v>0.9399165154426231</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9709362498544544</v>
+        <v>0.9701419881173642</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>595</v>
@@ -3486,19 +3486,19 @@
         <v>598575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>581105</v>
+        <v>580286</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>614177</v>
+        <v>613242</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8896258611938845</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8636616870155464</v>
+        <v>0.862443838246003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9128140178023861</v>
+        <v>0.9114248717843809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1217</v>
@@ -3507,19 +3507,19 @@
         <v>1244736</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1223541</v>
+        <v>1225199</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1261782</v>
+        <v>1262489</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9236422096981769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9079143558268166</v>
+        <v>0.9091449105092121</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9362911665701539</v>
+        <v>0.9368154580004902</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>31958</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22039</v>
+        <v>23460</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44269</v>
+        <v>45471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03125701669604623</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02155579717082192</v>
+        <v>0.02294545330494699</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04329746210415488</v>
+        <v>0.04447293895363742</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -3632,19 +3632,19 @@
         <v>92794</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75860</v>
+        <v>74301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117182</v>
+        <v>112822</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08897586784455834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07273834399741323</v>
+        <v>0.07124415105394781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1123607059400422</v>
+        <v>0.10817944457965</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -3653,19 +3653,19 @@
         <v>124752</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103767</v>
+        <v>104950</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150561</v>
+        <v>150622</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.060402641106968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05024180340302514</v>
+        <v>0.05081487247764389</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07289876153851715</v>
+        <v>0.07292850891974266</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>990473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>978162</v>
+        <v>976960</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1000392</v>
+        <v>998971</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9687429833039538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.956702537895845</v>
+        <v>0.9555270610463628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9784442028291781</v>
+        <v>0.9770545466950534</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>900</v>
@@ -3703,19 +3703,19 @@
         <v>950119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>925731</v>
+        <v>930091</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>967053</v>
+        <v>968612</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9110241321554416</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8876392940599581</v>
+        <v>0.89182055542035</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9272616560025869</v>
+        <v>0.9287558489460523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1818</v>
@@ -3724,19 +3724,19 @@
         <v>1940592</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1914783</v>
+        <v>1914722</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1961577</v>
+        <v>1960394</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.939597358893032</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.927101238461483</v>
+        <v>0.9270714910802573</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9497581965969749</v>
+        <v>0.9491851275223562</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>25007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16270</v>
+        <v>16241</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37073</v>
+        <v>36006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03292357822265329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02142085776709621</v>
+        <v>0.0213821608319776</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04880895673175547</v>
+        <v>0.04740371340111847</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -3849,19 +3849,19 @@
         <v>66238</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51306</v>
+        <v>51642</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83341</v>
+        <v>84122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08437792288818788</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06535657523217261</v>
+        <v>0.06578565003435356</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1061652532377346</v>
+        <v>0.1071605911080369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -3870,19 +3870,19 @@
         <v>91245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73760</v>
+        <v>74428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112585</v>
+        <v>110832</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05907480483294078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04775465118989119</v>
+        <v>0.04818699655118899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07289110098065961</v>
+        <v>0.07175606398683576</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>734545</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>722479</v>
+        <v>723546</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>743282</v>
+        <v>743311</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9670764217773468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9511910432682446</v>
+        <v>0.9525962865988813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9785791422329041</v>
+        <v>0.9786178391680223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>678</v>
@@ -3920,19 +3920,19 @@
         <v>718773</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>701670</v>
+        <v>700889</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733705</v>
+        <v>733369</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9156220771118121</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8938347467622654</v>
+        <v>0.8928394088919629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9346434247678274</v>
+        <v>0.9342143499656465</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1349</v>
@@ -3941,19 +3941,19 @@
         <v>1453318</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1431978</v>
+        <v>1433731</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1470803</v>
+        <v>1470135</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9409251951670592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9271088990193402</v>
+        <v>0.9282439360131657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9522453488101087</v>
+        <v>0.9518130034488113</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>33880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22832</v>
+        <v>22844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47170</v>
+        <v>47891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03613609759081764</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02435278529418331</v>
+        <v>0.02436484515213152</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05031118242082094</v>
+        <v>0.0510805084388042</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -4066,19 +4066,19 @@
         <v>113895</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92692</v>
+        <v>93634</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137064</v>
+        <v>135439</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1091182941385879</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08880458388263694</v>
+        <v>0.08970692003171772</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1313155572372811</v>
+        <v>0.1297586251499471</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -4087,19 +4087,19 @@
         <v>147775</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124114</v>
+        <v>123009</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173963</v>
+        <v>170493</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07458333729638314</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06264130397142589</v>
+        <v>0.06208342349803972</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08780034502734337</v>
+        <v>0.08604891025732785</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>903687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>890397</v>
+        <v>889676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>914735</v>
+        <v>914723</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9638639024091824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9496888175791791</v>
+        <v>0.9489194915611959</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9756472147058165</v>
+        <v>0.9756351548478686</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>862</v>
@@ -4137,19 +4137,19 @@
         <v>929884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>906715</v>
+        <v>908340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>951087</v>
+        <v>950145</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8908817058614121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8686844427627194</v>
+        <v>0.8702413748500527</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9111954161173631</v>
+        <v>0.9102930799682822</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1761</v>
@@ -4158,19 +4158,19 @@
         <v>1833571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1807383</v>
+        <v>1810853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1857232</v>
+        <v>1858337</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9254166627036169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9121996549726564</v>
+        <v>0.913951089742672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.937358696028574</v>
+        <v>0.9379165765019603</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>119484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99515</v>
+        <v>100714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142420</v>
+        <v>143313</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03520085888637804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02931786472669364</v>
+        <v>0.0296709665606585</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04195810045325855</v>
+        <v>0.04222104688561251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>303</v>
@@ -4283,19 +4283,19 @@
         <v>347191</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>309860</v>
+        <v>313823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>385354</v>
+        <v>389012</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0979509047708593</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08741900864611142</v>
+        <v>0.08853682970256956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1087175767045439</v>
+        <v>0.1097496566125327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>424</v>
@@ -4304,19 +4304,19 @@
         <v>466675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>424462</v>
+        <v>424129</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>513397</v>
+        <v>512692</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06725499117573665</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0611714150751944</v>
+        <v>0.06112337699167627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0739883429252135</v>
+        <v>0.0738867472995807</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3274866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3251930</v>
+        <v>3251037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3294835</v>
+        <v>3293636</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.964799141113622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9580418995467415</v>
+        <v>0.9577789531143874</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9706821352733064</v>
+        <v>0.9703290334393415</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3035</v>
@@ -4354,19 +4354,19 @@
         <v>3197351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3159188</v>
+        <v>3155530</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3234682</v>
+        <v>3230719</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9020490952291407</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8912824232954561</v>
+        <v>0.8902503433874673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9125809913538885</v>
+        <v>0.9114631702974304</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6145</v>
@@ -4375,19 +4375,19 @@
         <v>6472217</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6425495</v>
+        <v>6426200</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6514430</v>
+        <v>6514763</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9327450088242634</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9260116570747864</v>
+        <v>0.9261132527004188</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9388285849248049</v>
+        <v>0.9388766230083238</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>69391</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56703</v>
+        <v>57300</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85459</v>
+        <v>85946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1004639370705099</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08209364102416337</v>
+        <v>0.08295833779233371</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1237268560043893</v>
+        <v>0.1244315012229795</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>281</v>
@@ -4740,19 +4740,19 @@
         <v>129978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116502</v>
+        <v>115694</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>144645</v>
+        <v>144427</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1770388772362823</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1586835997909522</v>
+        <v>0.1575822712783554</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1970154191000468</v>
+        <v>0.196719168903987</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>382</v>
@@ -4761,19 +4761,19 @@
         <v>199370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176754</v>
+        <v>179679</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220594</v>
+        <v>222296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1399194738067879</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.124047388296888</v>
+        <v>0.1261003071151182</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1548150236932352</v>
+        <v>0.1560090344506272</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>621319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>605251</v>
+        <v>604764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>634007</v>
+        <v>633410</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8995360629294902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.876273143995611</v>
+        <v>0.8755684987770206</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9179063589758383</v>
+        <v>0.9170416622076665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>960</v>
@@ -4811,19 +4811,19 @@
         <v>604202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>589535</v>
+        <v>589753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>617678</v>
+        <v>618486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8229611227637176</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8029845808999533</v>
+        <v>0.803280831096013</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8413164002090477</v>
+        <v>0.8424177287216446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1589</v>
@@ -4832,19 +4832,19 @@
         <v>1225519</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1204295</v>
+        <v>1202593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1248135</v>
+        <v>1245210</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8600805261932122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8451849763067646</v>
+        <v>0.8439909655493728</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.875952611703112</v>
+        <v>0.8738996928848819</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>85174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69099</v>
+        <v>69277</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102402</v>
+        <v>102923</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08120154379567618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06587612667506737</v>
+        <v>0.06604577102126498</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0976262961212252</v>
+        <v>0.09812265609005574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>289</v>
@@ -4957,19 +4957,19 @@
         <v>165449</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148082</v>
+        <v>147540</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>185080</v>
+        <v>184572</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.154412157283955</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1382040729885968</v>
+        <v>0.1376979198594617</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1727339627001897</v>
+        <v>0.1722602396155919</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>403</v>
@@ -4978,19 +4978,19 @@
         <v>250622</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>227063</v>
+        <v>225098</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>276234</v>
+        <v>274956</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1181962652775826</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1070854773182867</v>
+        <v>0.1061589068202</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1302752329173382</v>
+        <v>0.1296722786016633</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>963743</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>946515</v>
+        <v>945994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>979818</v>
+        <v>979640</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9187984562043239</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9023737038787749</v>
+        <v>0.9018773439099443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9341238733249325</v>
+        <v>0.9339542289787349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1228</v>
@@ -5028,19 +5028,19 @@
         <v>906025</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>886394</v>
+        <v>886902</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>923392</v>
+        <v>923934</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8455878427160449</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8272660372998104</v>
+        <v>0.8277397603844082</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8617959270114033</v>
+        <v>0.8623020801405383</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2078</v>
@@ -5049,19 +5049,19 @@
         <v>1869769</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1844157</v>
+        <v>1845435</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1893328</v>
+        <v>1895293</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8818037347224172</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.869724767082662</v>
+        <v>0.8703277213983368</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8929145226817133</v>
+        <v>0.8938410931798002</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>59243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45908</v>
+        <v>46206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75784</v>
+        <v>76471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07376980821017752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05716500289268509</v>
+        <v>0.05753687037287962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09436793218601935</v>
+        <v>0.09522237623804222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -5174,19 +5174,19 @@
         <v>119213</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102389</v>
+        <v>103256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136168</v>
+        <v>136950</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1467673463841592</v>
+        <v>0.1467673463841591</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1260548471383683</v>
+        <v>0.1271220024372201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1676416514809064</v>
+        <v>0.1686036650414795</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>242</v>
@@ -5195,19 +5195,19 @@
         <v>178456</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>155311</v>
+        <v>154994</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203072</v>
+        <v>201702</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1104761300045447</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09614819733483991</v>
+        <v>0.09595165601456671</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1257150816254464</v>
+        <v>0.1248673426333372</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>743830</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>727289</v>
+        <v>726602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>757165</v>
+        <v>756867</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9262301917898225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9056320678139805</v>
+        <v>0.9047776237619578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9428349971073149</v>
+        <v>0.9424631296271204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>868</v>
@@ -5245,19 +5245,19 @@
         <v>693046</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>676091</v>
+        <v>675309</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>709870</v>
+        <v>709003</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8532326536158409</v>
+        <v>0.8532326536158407</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8323583485190935</v>
+        <v>0.8313963349585206</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8739451528616317</v>
+        <v>0.8728779975627801</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1481</v>
@@ -5266,19 +5266,19 @@
         <v>1436876</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1412260</v>
+        <v>1413630</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1460021</v>
+        <v>1460338</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8895238699954553</v>
+        <v>0.8895238699954554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8742849183745536</v>
+        <v>0.875132657366663</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9038518026651597</v>
+        <v>0.9040483439854334</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>82803</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68067</v>
+        <v>68407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98860</v>
+        <v>101470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08363410886982531</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06875006878213295</v>
+        <v>0.06909391029361631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0998520542910741</v>
+        <v>0.1024886565966723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>315</v>
@@ -5391,19 +5391,19 @@
         <v>197766</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179768</v>
+        <v>177468</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>221218</v>
+        <v>220740</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1767282485945962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1606445800617353</v>
+        <v>0.1585895350680652</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1976852584057298</v>
+        <v>0.1972584057470775</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>429</v>
@@ -5412,19 +5412,19 @@
         <v>280569</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>255622</v>
+        <v>255376</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>305447</v>
+        <v>305568</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.133027696986671</v>
+        <v>0.1330276969866709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1211994176782893</v>
+        <v>0.1210827282166649</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1448230164884156</v>
+        <v>0.1448806207078969</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>907259</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>891202</v>
+        <v>888592</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>921995</v>
+        <v>921655</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9163658911301746</v>
+        <v>0.9163658911301747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9001479457089259</v>
+        <v>0.8975113434033277</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.931249931217867</v>
+        <v>0.9309060897063837</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1247</v>
@@ -5462,19 +5462,19 @@
         <v>921275</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>897823</v>
+        <v>898301</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>939273</v>
+        <v>941573</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.823271751405404</v>
+        <v>0.8232717514054039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8023147415942704</v>
+        <v>0.8027415942529225</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8393554199382649</v>
+        <v>0.8414104649319348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2139</v>
@@ -5483,19 +5483,19 @@
         <v>1828535</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1803657</v>
+        <v>1803536</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1853482</v>
+        <v>1853728</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8669723030133291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8551769835115842</v>
+        <v>0.8551193792921026</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8788005823217108</v>
+        <v>0.8789172717833348</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>296611</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>266575</v>
+        <v>265547</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>329967</v>
+        <v>327016</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08395997600994848</v>
+        <v>0.08395997600994846</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07545796431254684</v>
+        <v>0.07516693162555334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09340205932408133</v>
+        <v>0.09256652663953151</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1064</v>
@@ -5608,19 +5608,19 @@
         <v>612406</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>576726</v>
+        <v>577370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>647787</v>
+        <v>649137</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1638784621599326</v>
+        <v>0.1638784621599325</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.154330419170001</v>
+        <v>0.154502949487301</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1733462312597545</v>
+        <v>0.1737074110250952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1456</v>
@@ -5629,19 +5629,19 @@
         <v>909017</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>861525</v>
+        <v>864032</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>955437</v>
+        <v>958799</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1250415969027669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1185088046878754</v>
+        <v>0.1188536030113951</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1314269415704956</v>
+        <v>0.1318895371300452</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3236151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3202795</v>
+        <v>3205746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3266187</v>
+        <v>3267215</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9160400239900516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9065979406759187</v>
+        <v>0.9074334733604685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9245420356874532</v>
+        <v>0.9248330683744466</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4303</v>
@@ -5679,19 +5679,19 @@
         <v>3124548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3089167</v>
+        <v>3087817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3160228</v>
+        <v>3159584</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8361215378400676</v>
+        <v>0.8361215378400675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8266537687402455</v>
+        <v>0.8262925889749048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.845669580829999</v>
+        <v>0.845497050512699</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7287</v>
@@ -5700,19 +5700,19 @@
         <v>6360699</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6314279</v>
+        <v>6310917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6408191</v>
+        <v>6405684</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8749584030972332</v>
+        <v>0.8749584030972331</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8685730584295043</v>
+        <v>0.8681104628699546</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8814911953121245</v>
+        <v>0.8811463969886048</v>
       </c>
     </row>
     <row r="18">
